--- a/datos_hall_tipo_n.xlsx
+++ b/datos_hall_tipo_n.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER_PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ba_romero_uniandes_edu_co/Documents/Septimo semestre/Intermedio/Intermedio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{336C7AA4-B51C-47BC-BB6D-73FDD3FC4F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{336C7AA4-B51C-47BC-BB6D-73FDD3FC4F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17265B48-5BE0-4D58-86A7-88958ED5D6AF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{46EAAD92-92E1-4DCB-A8FA-BF5B3AE7BA0D}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16704" windowHeight="9432" xr2:uid="{46EAAD92-92E1-4DCB-A8FA-BF5B3AE7BA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="parte 2 tipo p" sheetId="3" r:id="rId1"/>
     <sheet name="parte 2 tipo n" sheetId="2" r:id="rId2"/>
     <sheet name="parte 1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6935,9 +6946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6975,7 +6986,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7081,7 +7092,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7223,7 +7234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7231,10 +7242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B20DEE6-C2C4-43AB-88F1-1262B7496628}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7242,7 +7253,7 @@
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7274,7 +7285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7321,7 +7332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -7368,7 +7379,7 @@
         <v>-8.1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8.6</v>
       </c>
@@ -7415,7 +7426,7 @@
         <v>-8.08</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6.6</v>
       </c>
@@ -7462,7 +7473,7 @@
         <v>-8.07</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7509,7 +7520,7 @@
         <v>-8.06</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.9</v>
       </c>
@@ -7556,7 +7567,7 @@
         <v>-8.06</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-0.3</v>
       </c>
@@ -7603,7 +7614,7 @@
         <v>-8.0500000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-2.9</v>
       </c>
@@ -7649,8 +7660,16 @@
       <c r="U9">
         <v>-8.0500000000000007</v>
       </c>
+      <c r="V9">
+        <f>U9*-1</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="W9">
+        <f>V9*100</f>
+        <v>805.00000000000011</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-5.5</v>
       </c>
@@ -7696,8 +7715,16 @@
       <c r="U10">
         <v>-8.0500000000000007</v>
       </c>
+      <c r="V10">
+        <f t="shared" ref="V10:V15" si="0">U10*-1</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ref="W10:W15" si="1">V10*100</f>
+        <v>805.00000000000011</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-8.1999999999999993</v>
       </c>
@@ -7743,8 +7770,16 @@
       <c r="U11">
         <v>-8.0500000000000007</v>
       </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>805.00000000000011</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-10.199999999999999</v>
       </c>
@@ -7790,8 +7825,16 @@
       <c r="U12">
         <v>-8.06</v>
       </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>8.06</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>806</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-12.6</v>
       </c>
@@ -7837,8 +7880,16 @@
       <c r="U13">
         <v>-8.07</v>
       </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>8.07</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>807</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-15.1</v>
       </c>
@@ -7884,8 +7935,16 @@
       <c r="U14">
         <v>-8.08</v>
       </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>8.08</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>808</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-17</v>
       </c>
@@ -7930,6 +7989,14 @@
       </c>
       <c r="U15">
         <v>-8.09</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>8.09</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>809</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,7 +8476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A24A10B-9A4C-4082-9EB3-96C49469BE95}">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="63" zoomScaleNormal="81" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
